--- a/top_league_soccer/Excel/dados_serieA.xlsx
+++ b/top_league_soccer/Excel/dados_serieA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
   <si>
     <t>#</t>
   </si>
@@ -115,12 +115,12 @@
     <t>Roma</t>
   </si>
   <si>
+    <t>Lazio</t>
+  </si>
+  <si>
     <t>Fiorentina</t>
   </si>
   <si>
-    <t>Lazio</t>
-  </si>
-  <si>
     <t>Napoli</t>
   </si>
   <si>
@@ -175,9 +175,6 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
     <t>2.7</t>
   </si>
   <si>
@@ -205,18 +202,15 @@
     <t>4.5</t>
   </si>
   <si>
+    <t>5.2</t>
+  </si>
+  <si>
     <t>4.7</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
     <t>6.2</t>
   </si>
   <si>
-    <t>4.4</t>
-  </si>
-  <si>
     <t>5.0</t>
   </si>
   <si>
@@ -253,24 +247,24 @@
     <t>75%</t>
   </si>
   <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>92%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>54%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
     <t>63%</t>
   </si>
   <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
     <t>58%</t>
   </si>
   <si>
@@ -283,10 +277,7 @@
     <t>45%</t>
   </si>
   <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>29%</t>
+    <t>28%</t>
   </si>
   <si>
     <t>36%</t>
@@ -319,19 +310,16 @@
     <t>3.00</t>
   </si>
   <si>
+    <t>2.28</t>
+  </si>
+  <si>
     <t>2.64</t>
   </si>
   <si>
-    <t>2.29</t>
-  </si>
-  <si>
     <t>2.54</t>
   </si>
   <si>
-    <t>1.79</t>
-  </si>
-  <si>
-    <t>2.28</t>
+    <t>1.80</t>
   </si>
   <si>
     <t>2.52</t>
@@ -744,16 +732,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -767,16 +755,16 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -790,16 +778,16 @@
         <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -813,16 +801,16 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -836,16 +824,16 @@
         <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -859,16 +847,16 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -879,19 +867,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -902,19 +890,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -928,16 +916,16 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -951,16 +939,16 @@
         <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -974,16 +962,16 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -997,16 +985,16 @@
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1017,19 +1005,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1043,16 +1031,16 @@
         <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1063,19 +1051,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1089,16 +1077,16 @@
         <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1112,16 +1100,16 @@
         <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1132,19 +1120,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1155,19 +1143,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1181,16 +1169,16 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_serieA.xlsx
+++ b/top_league_soccer/Excel/dados_serieA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>#</t>
   </si>
@@ -106,24 +106,24 @@
     <t>Milan</t>
   </si>
   <si>
+    <t>Bologna</t>
+  </si>
+  <si>
+    <t>Roma</t>
+  </si>
+  <si>
     <t>Atalanta</t>
   </si>
   <si>
-    <t>Bologna</t>
-  </si>
-  <si>
-    <t>Roma</t>
+    <t>Napoli</t>
+  </si>
+  <si>
+    <t>Fiorentina</t>
   </si>
   <si>
     <t>Lazio</t>
   </si>
   <si>
-    <t>Fiorentina</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
     <t>Torino</t>
   </si>
   <si>
@@ -136,46 +136,46 @@
     <t>Lecce</t>
   </si>
   <si>
+    <t>Empoli</t>
+  </si>
+  <si>
     <t>Udinese</t>
   </si>
   <si>
     <t>Frosinone</t>
   </si>
   <si>
-    <t>Empoli</t>
-  </si>
-  <si>
     <t>Hellas Verona</t>
   </si>
   <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
     <t>Sassuolo</t>
   </si>
   <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
     <t>Salernitana</t>
   </si>
   <si>
-    <t>1.3</t>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.5</t>
   </si>
   <si>
     <t>2.3</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>2.7</t>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
   <si>
     <t>2.0</t>
@@ -187,154 +187,151 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>5.1</t>
+    <t>5.0</t>
   </si>
   <si>
     <t>4.3</t>
   </si>
   <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
     <t>6.0</t>
   </si>
   <si>
-    <t>3.8</t>
+    <t>4.9</t>
   </si>
   <si>
     <t>4.5</t>
   </si>
   <si>
-    <t>5.2</t>
+    <t>5.3</t>
+  </si>
+  <si>
+    <t>4.4</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>3.3</t>
   </si>
   <si>
     <t>4.7</t>
   </si>
   <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>84%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>75%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>39%</t>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>67%</t>
   </si>
   <si>
     <t>63%</t>
   </si>
   <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>48%</t>
+    <t>77%</t>
+  </si>
+  <si>
+    <t>93%</t>
   </si>
   <si>
     <t>60%</t>
   </si>
   <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
     <t>45%</t>
   </si>
   <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
     <t>40%</t>
   </si>
   <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>2.20</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>2.92</t>
-  </si>
-  <si>
-    <t>2.40</t>
-  </si>
-  <si>
-    <t>3.00</t>
-  </si>
-  <si>
-    <t>2.28</t>
-  </si>
-  <si>
-    <t>2.64</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>1.80</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>3.08</t>
-  </si>
-  <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>2.84</t>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>2.56</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>3.37</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>2.78</t>
   </si>
 </sst>
 </file>
@@ -741,7 +738,7 @@
         <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -764,7 +761,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -784,10 +781,10 @@
         <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -798,19 +795,19 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -821,19 +818,19 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -844,19 +841,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -870,16 +867,16 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -890,19 +887,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
         <v>75</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -913,19 +910,19 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -936,19 +933,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -962,16 +959,16 @@
         <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -982,19 +979,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1005,19 +1002,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
         <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1028,19 +1025,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
         <v>90</v>
-      </c>
-      <c r="G15" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1051,19 +1048,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1074,19 +1071,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1097,19 +1094,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E18" t="s">
         <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1120,19 +1117,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1143,19 +1140,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1169,16 +1166,16 @@
         <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
         <v>70</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_serieA.xlsx
+++ b/top_league_soccer/Excel/dados_serieA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
   <si>
     <t>#</t>
   </si>
@@ -100,12 +100,12 @@
     <t>Inter</t>
   </si>
   <si>
+    <t>Milan</t>
+  </si>
+  <si>
     <t>Juventus</t>
   </si>
   <si>
-    <t>Milan</t>
-  </si>
-  <si>
     <t>Bologna</t>
   </si>
   <si>
@@ -124,33 +124,33 @@
     <t>Lazio</t>
   </si>
   <si>
+    <t>Monza</t>
+  </si>
+  <si>
     <t>Torino</t>
   </si>
   <si>
-    <t>Monza</t>
-  </si>
-  <si>
     <t>Genoa</t>
   </si>
   <si>
+    <t>Udinese</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
     <t>Lecce</t>
   </si>
   <si>
     <t>Empoli</t>
   </si>
   <si>
-    <t>Udinese</t>
-  </si>
-  <si>
     <t>Frosinone</t>
   </si>
   <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
     <t>Sassuolo</t>
   </si>
   <si>
@@ -163,175 +163,160 @@
     <t>2.4</t>
   </si>
   <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>1.8</t>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>5.6</t>
   </si>
   <si>
     <t>6.3</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>6.0</t>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>4.8</t>
   </si>
   <si>
     <t>4.9</t>
   </si>
   <si>
-    <t>4.5</t>
-  </si>
-  <si>
     <t>5.3</t>
   </si>
   <si>
-    <t>4.4</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>85%</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>70%</t>
+    <t>5.2</t>
   </si>
   <si>
     <t>82%</t>
   </si>
   <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>67%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>93%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>59%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>3.07</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>2.93</t>
-  </si>
-  <si>
-    <t>2.70</t>
-  </si>
-  <si>
-    <t>2.56</t>
-  </si>
-  <si>
-    <t>2.26</t>
-  </si>
-  <si>
-    <t>1.85</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>2.48</t>
-  </si>
-  <si>
-    <t>3.37</t>
-  </si>
-  <si>
-    <t>2.22</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>3.22</t>
-  </si>
-  <si>
-    <t>2.78</t>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>1.86</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>3.29</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>2.89</t>
   </si>
 </sst>
 </file>
@@ -735,10 +720,10 @@
         <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -758,10 +743,10 @@
         <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -772,19 +757,19 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -801,13 +786,13 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -818,19 +803,19 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -841,19 +826,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -864,19 +849,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -887,19 +872,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -910,19 +895,19 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -933,19 +918,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
         <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -956,19 +941,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
         <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -979,19 +964,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1002,19 +987,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1025,19 +1010,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G15" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1048,19 +1033,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1071,19 +1056,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="G17" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1094,19 +1079,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
         <v>67</v>
       </c>
       <c r="E18" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1117,19 +1102,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
         <v>68</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G19" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1143,16 +1128,16 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1163,19 +1148,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G21" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_serieA.xlsx
+++ b/top_league_soccer/Excel/dados_serieA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -115,39 +115,39 @@
     <t>Atalanta</t>
   </si>
   <si>
+    <t>Lazio</t>
+  </si>
+  <si>
     <t>Napoli</t>
   </si>
   <si>
     <t>Fiorentina</t>
   </si>
   <si>
-    <t>Lazio</t>
+    <t>Torino</t>
   </si>
   <si>
     <t>Monza</t>
   </si>
   <si>
-    <t>Torino</t>
-  </si>
-  <si>
     <t>Genoa</t>
   </si>
   <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
     <t>Udinese</t>
   </si>
   <si>
-    <t>Hellas Verona</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Empoli</t>
-  </si>
-  <si>
     <t>Frosinone</t>
   </si>
   <si>
@@ -157,166 +157,199 @@
     <t>Salernitana</t>
   </si>
   <si>
-    <t>1.4</t>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.1</t>
   </si>
   <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>6.1</t>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.3</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.4</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>4.8</t>
   </si>
   <si>
     <t>4.6</t>
   </si>
   <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.9</t>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.6</t>
   </si>
   <si>
     <t>5.3</t>
   </si>
   <si>
-    <t>5.2</t>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>87%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>79%</t>
+  </si>
+  <si>
+    <t>69%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>67%</t>
   </si>
   <si>
     <t>82%</t>
   </si>
   <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
     <t>58%</t>
   </si>
   <si>
-    <t>89%</t>
+    <t>63%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>59%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>27%</t>
+  </si>
+  <si>
+    <t>39%</t>
   </si>
   <si>
     <t>57%</t>
   </si>
   <si>
-    <t>46%</t>
-  </si>
-  <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>61%</t>
-  </si>
-  <si>
-    <t>43%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>2.96</t>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>2.21</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.97</t>
   </si>
   <si>
     <t>3.00</t>
   </si>
   <si>
-    <t>2.39</t>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>2.53</t>
+  </si>
+  <si>
+    <t>1.82</t>
   </si>
   <si>
     <t>2.36</t>
   </si>
   <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>2.68</t>
-  </si>
-  <si>
-    <t>2.61</t>
-  </si>
-  <si>
-    <t>2.29</t>
-  </si>
-  <si>
-    <t>1.86</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.18</t>
+    <t>2.27</t>
   </si>
   <si>
     <t>2.79</t>
   </si>
   <si>
-    <t>3.29</t>
-  </si>
-  <si>
-    <t>3.14</t>
-  </si>
-  <si>
-    <t>2.89</t>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>2.91</t>
   </si>
 </sst>
 </file>
@@ -717,13 +750,13 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -740,13 +773,13 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -757,19 +790,19 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -786,13 +819,13 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -803,19 +836,19 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -826,19 +859,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -849,19 +882,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -878,13 +911,13 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G9" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -898,16 +931,16 @@
         <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -918,19 +951,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G11" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -941,19 +974,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F12" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -964,19 +997,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -990,16 +1023,16 @@
         <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1010,19 +1043,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E15" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1033,19 +1066,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1059,16 +1092,16 @@
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="F17" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1079,19 +1112,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G18" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1102,19 +1135,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1128,16 +1161,16 @@
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G20" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1148,19 +1181,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
